--- a/data/trans_camb/P23_6_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P23_6_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,81</t>
+          <t>-2,04</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-1,01</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>7,27</t>
+          <t>1,93</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>14,13</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5,74</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1,01</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,22</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>7,26</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 4,66</t>
+          <t>-6,01; 4,92</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 5,26</t>
+          <t>-4,99; 5,39</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 9,5</t>
+          <t>-8,25; 3,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 5,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,85; 3,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,13; 12,49</t>
+          <t>-3,86; 7,76</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 3,82</t>
+          <t>-6,03; 4,78</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 2,98</t>
+          <t>6,07; 22,96</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,12; 10,22</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-3,31; 4,58</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-3,68; 3,41</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>1,12; 12,87</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>-0,83%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>11,68%</t>
+          <t>9,87%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>58,95%</t>
+          <t>-31,98%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>11,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-11,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>80,89%</t>
+          <t>22,51%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>6,79%</t>
+          <t>-1,03%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-3,37%</t>
+          <t>164,86%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>72,49%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>13,35%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>2,84%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>95,53%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-50,2; 123,37</t>
+          <t>-61,48; 160,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-51,8; 131,95</t>
+          <t>-50,53; 168,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-19,05; 245,72</t>
+          <t>-80,74; 105,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-31,29; 81,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-48,35; 54,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,12; 183,26</t>
+          <t>-32,94; 161,06</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-30,73; 66,34</t>
+          <t>-48,46; 93,47</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-39,27; 52,77</t>
+          <t>30,39; 424,36</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>20,41; 167,55</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-33,56; 88,56</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-36,58; 64,08</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>10,55; 242,39</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,31</t>
+          <t>-1,79</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,76</t>
+          <t>-2,19</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,38</t>
+          <t>5,02</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,63</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>-1,89</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-1,97</t>
+          <t>-1,1</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-1,42</t>
+          <t>-1,6</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,34</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-1,86</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-1,71</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>1,65</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 1,93</t>
+          <t>-5,13; 3,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 0,95</t>
+          <t>-5,67; 0,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,96; 8,06</t>
+          <t>0,38; 14,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,74; 0,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 1,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 3,66</t>
+          <t>-7,02; 1,81</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 0,24</t>
+          <t>-6,07; 2,29</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 0,59</t>
+          <t>-7,16; 2,33</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 4,96</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-5,04; 1,13</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-4,54; 0,85</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-1,61; 6,23</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-21,03%</t>
+          <t>-26,83%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-28,28%</t>
+          <t>-32,75%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>70,44%</t>
+          <t>75,11%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-30,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-11,77%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>-22,38%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-26,89%</t>
+          <t>-13,06%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-19,39%</t>
+          <t>-18,98%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>31,81%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-24,5%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-22,57%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>21,75%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-55,41; 41,8</t>
+          <t>-64,21; 67,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-57,79; 21,02</t>
+          <t>-63,28; 18,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,04; 169,25</t>
+          <t>-2,76; 269,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-55,02; 7,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-43,41; 29,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-38,71; 55,34</t>
+          <t>-57,8; 30,37</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-47,52; 5,75</t>
+          <t>-49,02; 40,12</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-42,92; 10,34</t>
+          <t>-58,14; 41,43</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 79,83</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-51,77; 24,07</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-47,18; 15,73</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-20,06; 98,95</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,23</t>
+          <t>-1,59</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,15</t>
+          <t>-0,84</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,09</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,93</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,64</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,58</t>
+          <t>2,48</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>4,83</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>2,82</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-0,19</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0,87</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>2,62</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,03; 1,75</t>
+          <t>-7,26; 2,14</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 2,9</t>
+          <t>-7,75; 2,4</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 8,12</t>
+          <t>-5,74; 4,07</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 2,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 4,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 6,38</t>
+          <t>-1,07; 3,3</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 1,21</t>
+          <t>0,05; 4,63</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 2,79</t>
+          <t>2,11; 8,13</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,03; 5,68</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-3,37; 2,04</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-2,64; 2,78</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-0,57; 5,23</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-32,55%</t>
+          <t>-35,96%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-4,09%</t>
+          <t>-19,03%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>81,74%</t>
+          <t>5,57%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>3,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>77,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>106,66%</t>
+          <t>57,85%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-18,42%</t>
+          <t>129,47%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>28,58%</t>
+          <t>252,32%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>90,02%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-6,21%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>27,93%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>83,85%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1601,84 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-79,3; 99,85</t>
+          <t>-88,68; 129,58</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-66,31; 129,43</t>
+          <t>-79,85; 115,1</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-38,96; 341,22</t>
+          <t>-70,14; 199,83</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-55,89; 157,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-11,94; 302,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-12,4; 409,28</t>
+          <t>-43,84; 393,45</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-59,5; 60,56</t>
+          <t>-8,86; 509,21</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-35,79; 140,11</t>
+          <t>39,48; 944,54</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-6,39; 251,56</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-63,9; 111,29</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-49,52; 144,07</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-18,21; 266,89</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,92</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,69</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,27</t>
+          <t>2,44</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,92</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,72</t>
+          <t>-3,67</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,93</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-0,42</t>
+          <t>-0,44</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>3,98</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-1,34</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>0,99</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 1,03</t>
+          <t>-1,86; 4,57</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 1,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,6; 6,83</t>
+          <t>-1,02; 6,87</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 0,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 1,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,1; 6,01</t>
+          <t>-6,76; 0,44</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 0,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 0,87</t>
+          <t>-4,35; 3,96</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,24; 5,68</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-3,6; 1,05</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-1,64; 3,79</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-16,88%</t>
+          <t>21,12%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-12,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>77,91%</t>
+          <t>57,67%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-13,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-2,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>54,91%</t>
+          <t>-45,93%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-15,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-6,87%</t>
+          <t>-5,51%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>64,75%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-22,01%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>16,33%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,434 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-45,09; 28,81</t>
+          <t>-37,62; 154,1</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-40,23; 30,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>23,91; 150,52</t>
+          <t>-21,9; 218,45</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-35,91; 16,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-29,19; 28,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>12,6; 103,3</t>
+          <t>-73,08; 10,58</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-34,45; 11,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-26,92; 15,87</t>
+          <t>-44,67; 68,46</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>32,9; 104,59</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-51,38; 20,8</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-24,51; 70,67</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-0,51</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-0,43</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>2,29</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-1,05</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-0,22</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>2,79</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-0,79</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>-0,33</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>2,54</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-2,44; 1,77</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-2,32; 1,34</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0,03; 5,39</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-3,09; 0,82</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-2,45; 1,68</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0,57; 5,21</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-2,23; 0,57</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-1,77; 1,0</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>0,75; 4,35</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-9,85%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-8,32%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>44,46%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-15,24%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-3,24%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>40,5%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>-13,05%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>-5,43%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>42,04%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-40,34; 45,05</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-37,22; 33,45</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-1,37; 125,49</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-37,31; 14,46</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-28,46; 29,15</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>5,81; 88,97</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-32,09; 11,59</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-26,16; 19,49</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>11,01; 81,15</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
